--- a/USDCHF/Data_USDCHF.xlsx
+++ b/USDCHF/Data_USDCHF.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\UiPath\Automatic\Automatic\USDCHF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\UiPath\Automatic\USDCHF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3B3300-32B2-46DB-8F87-7AB649F625F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="3030" windowWidth="14355" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="3030" windowWidth="14355" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -414,30 +413,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>466</v>
+        <v>834</v>
       </c>
       <c r="C3">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D3">
-        <v>3806</v>
+        <v>9987</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>190.3</v>
+        <v>168.05</v>
       </c>
       <c r="B4">
-        <v>979.65</v>
+        <v>1053.75</v>
       </c>
       <c r="C4">
-        <v>2949.45</v>
+        <v>3388.9</v>
       </c>
       <c r="D4">
-        <v>11198.95</v>
+        <v>12614.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -456,30 +455,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>66.75</v>
+        <v>52.39</v>
       </c>
       <c r="B6">
-        <v>59.65</v>
+        <v>63.22</v>
       </c>
       <c r="C6">
-        <v>57.7</v>
+        <v>65.510000000000005</v>
       </c>
       <c r="D6">
-        <v>63.06</v>
+        <v>69.58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>61.57</v>
+        <v>52.82</v>
       </c>
       <c r="B7">
-        <v>55.77</v>
+        <v>64.319999999999993</v>
       </c>
       <c r="C7">
-        <v>53.55</v>
+        <v>60.18</v>
       </c>
       <c r="D7">
-        <v>66.56</v>
+        <v>65.89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -513,15 +512,15 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>"Rsi sắp giao : " &amp;E39&amp; "; Rsi đang : " &amp;A6&amp; ";"</f>
-        <v>Rsi sắp giao : 5.18; Rsi đang : 66.75;</v>
+        <v>Rsi sắp giao : -0.43; Rsi đang : 52.39;</v>
       </c>
       <c r="E39">
         <f>A6-A7</f>
-        <v>5.18</v>
+        <v>-0.42999999999999972</v>
       </c>
       <c r="F39">
         <f>A3-A4</f>
-        <v>-1.3000000000000114</v>
+        <v>-152.05000000000001</v>
       </c>
       <c r="G39">
         <v>200</v>
@@ -530,15 +529,15 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>"Rsi sắp giao : " &amp;E40&amp; "; Rsi đang : " &amp;B6&amp; ";"</f>
-        <v>Rsi sắp giao : 3.88; Rsi đang : 59.65;</v>
+        <v>Rsi sắp giao : -1.09999999999999; Rsi đang : 63.22;</v>
       </c>
       <c r="E40">
         <f>B6-B7</f>
-        <v>3.8799999999999955</v>
+        <v>-1.0999999999999943</v>
       </c>
       <c r="F40">
         <f>B3-B4</f>
-        <v>-513.65</v>
+        <v>-219.75</v>
       </c>
       <c r="G40">
         <v>2000</v>
@@ -547,21 +546,21 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>"Rsi sắp giao : " &amp;E41&amp; "; Rsi đang : " &amp;C6&amp; ";"</f>
-        <v>Rsi sắp giao : 4.15000000000001; Rsi đang : 57.7;</v>
+        <v>Rsi sắp giao : 5.33000000000001; Rsi đang : 65.51;</v>
       </c>
       <c r="E41">
         <f>C6-C7</f>
-        <v>4.1500000000000057</v>
+        <v>5.3300000000000054</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>"Rsi sắp giao : " &amp;E42&amp; "; Rsi đang : " &amp;D6&amp; ";"</f>
-        <v>Rsi sắp giao : -3.5; Rsi đang : 63.06;</v>
+        <v>Rsi sắp giao : 3.69; Rsi đang : 69.58;</v>
       </c>
       <c r="E42">
         <f>D6-D7</f>
-        <v>-3.5</v>
+        <v>3.6899999999999977</v>
       </c>
     </row>
   </sheetData>

--- a/USDCHF/Data_USDCHF.xlsx
+++ b/USDCHF/Data_USDCHF.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="7">
   <si>
     <t>Khoi luong</t>
   </si>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,9 +381,12 @@
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -396,8 +399,20 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -410,36 +425,72 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B3">
-        <v>834</v>
+        <v>333</v>
       </c>
       <c r="C3">
-        <v>1865</v>
+        <v>333</v>
       </c>
       <c r="D3">
-        <v>9987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4602</v>
+      </c>
+      <c r="F3">
+        <v>366</v>
+      </c>
+      <c r="G3">
+        <v>821</v>
+      </c>
+      <c r="H3">
+        <v>821</v>
+      </c>
+      <c r="I3">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>168.05</v>
+        <v>353.85</v>
       </c>
       <c r="B4">
-        <v>1053.75</v>
+        <v>1720.2</v>
       </c>
       <c r="C4">
-        <v>3388.9</v>
+        <v>2904.25</v>
       </c>
       <c r="D4">
-        <v>12614.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12999.9</v>
+      </c>
+      <c r="F4">
+        <v>412.55</v>
+      </c>
+      <c r="G4">
+        <v>1634.3</v>
+      </c>
+      <c r="H4">
+        <v>3135.15</v>
+      </c>
+      <c r="I4">
+        <v>12810.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -452,36 +503,72 @@
       <c r="D5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>52.39</v>
+        <v>70.03</v>
       </c>
       <c r="B6">
-        <v>63.22</v>
+        <v>53.82</v>
       </c>
       <c r="C6">
-        <v>65.510000000000005</v>
+        <v>55.22</v>
       </c>
       <c r="D6">
-        <v>69.58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62.11</v>
+      </c>
+      <c r="F6">
+        <v>43.64</v>
+      </c>
+      <c r="G6">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="H6">
+        <v>43.01</v>
+      </c>
+      <c r="I6">
+        <v>57.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>52.82</v>
+        <v>54.78</v>
       </c>
       <c r="B7">
-        <v>64.319999999999993</v>
+        <v>47.34</v>
       </c>
       <c r="C7">
-        <v>60.18</v>
+        <v>58.49</v>
       </c>
       <c r="D7">
-        <v>65.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66.510000000000005</v>
+      </c>
+      <c r="F7">
+        <v>41.16</v>
+      </c>
+      <c r="G7">
+        <v>48.64</v>
+      </c>
+      <c r="H7">
+        <v>58.28</v>
+      </c>
+      <c r="I7">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -494,8 +581,20 @@
       <c r="D8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -506,61 +605,83 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>"Rsi sắp giao : " &amp;E39&amp; "; Rsi đang : " &amp;A6&amp; ";"</f>
-        <v>Rsi sắp giao : -0.43; Rsi đang : 52.39;</v>
+        <v>Rsi sắp giao : 15.25; Rsi đang : 70.03;</v>
       </c>
       <c r="E39">
         <f>A6-A7</f>
-        <v>-0.42999999999999972</v>
+        <v>15.25</v>
       </c>
       <c r="F39">
         <f>A3-A4</f>
-        <v>-152.05000000000001</v>
+        <v>-283.85000000000002</v>
       </c>
       <c r="G39">
-        <v>200</v>
+        <f>A4-F4</f>
+        <v>-58.699999999999989</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>"Rsi sắp giao : " &amp;E40&amp; "; Rsi đang : " &amp;B6&amp; ";"</f>
-        <v>Rsi sắp giao : -1.09999999999999; Rsi đang : 63.22;</v>
+        <v>Rsi sắp giao : 6.48; Rsi đang : 53.82;</v>
       </c>
       <c r="E40">
         <f>B6-B7</f>
-        <v>-1.0999999999999943</v>
+        <v>6.4799999999999969</v>
       </c>
       <c r="F40">
         <f>B3-B4</f>
-        <v>-219.75</v>
+        <v>-1387.2</v>
       </c>
       <c r="G40">
-        <v>2000</v>
+        <f>B4-G4</f>
+        <v>85.900000000000091</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>"Rsi sắp giao : " &amp;E41&amp; "; Rsi đang : " &amp;C6&amp; ";"</f>
-        <v>Rsi sắp giao : 5.33000000000001; Rsi đang : 65.51;</v>
+        <v>Rsi sắp giao : -3.27; Rsi đang : 55.22;</v>
       </c>
       <c r="E41">
         <f>C6-C7</f>
-        <v>5.3300000000000054</v>
+        <v>-3.2700000000000031</v>
+      </c>
+      <c r="G41">
+        <f>C4-H4</f>
+        <v>-230.90000000000009</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>"Rsi sắp giao : " &amp;E42&amp; "; Rsi đang : " &amp;D6&amp; ";"</f>
-        <v>Rsi sắp giao : 3.69; Rsi đang : 69.58;</v>
+        <v>Rsi sắp giao : -4.40000000000001; Rsi đang : 62.11;</v>
       </c>
       <c r="E42">
         <f>D6-D7</f>
-        <v>3.6899999999999977</v>
+        <v>-4.4000000000000057</v>
+      </c>
+      <c r="G42">
+        <f>D4-I4</f>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
